--- a/Master_table.xlsx
+++ b/Master_table.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8FE3D2-2174-4863-AAC7-D77CFC103993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6909C6-3AB6-46F0-A0BD-134D83AF697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
-    <sheet name="Daily" sheetId="2" r:id="rId2"/>
-    <sheet name="Mon" sheetId="3" r:id="rId3"/>
-    <sheet name="Tue" sheetId="4" r:id="rId4"/>
-    <sheet name="Wed" sheetId="5" r:id="rId5"/>
-    <sheet name="Thu" sheetId="6" r:id="rId6"/>
-    <sheet name="Fri" sheetId="7" r:id="rId7"/>
-    <sheet name="Sat" sheetId="9" r:id="rId8"/>
-    <sheet name="Sun" sheetId="10" r:id="rId9"/>
+    <sheet name="Mon" sheetId="3" r:id="rId2"/>
+    <sheet name="Tue" sheetId="4" r:id="rId3"/>
+    <sheet name="Wed" sheetId="5" r:id="rId4"/>
+    <sheet name="Thu" sheetId="6" r:id="rId5"/>
+    <sheet name="Fri" sheetId="7" r:id="rId6"/>
+    <sheet name="Sat" sheetId="9" r:id="rId7"/>
+    <sheet name="Sun" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="25">
   <si>
     <t>MARTINREA HFS</t>
   </si>
@@ -1392,7 +1391,9 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3744,13 +3745,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3806,7 +3809,7 @@
       <c r="N2" s="72"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="75"/>
       <c r="B3" s="76"/>
       <c r="C3" s="79"/>
@@ -3827,7 +3830,7 @@
       </c>
       <c r="O3" s="87"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="77"/>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -3848,7 +3851,7 @@
       </c>
       <c r="O4" s="87"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57">
         <v>1</v>
       </c>
@@ -3953,7 +3956,7 @@
       <c r="N7" s="27"/>
       <c r="O7" s="24"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="28" t="s">
         <v>19</v>
@@ -3981,7 +3984,7 @@
       <c r="N8" s="33"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="34" t="s">
         <v>20</v>
@@ -4033,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="43" t="str">
         <f t="shared" ref="B10:I10" si="0">B5</f>
@@ -4086,7 +4089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="13" t="s">
         <v>17</v>
@@ -4142,7 +4145,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="28" t="s">
         <v>19</v>
@@ -4170,7 +4173,7 @@
       <c r="N13" s="33"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="34" t="s">
         <v>20</v>
@@ -4222,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -4267,7 +4270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="13" t="s">
         <v>17</v>
@@ -4323,7 +4326,7 @@
       <c r="N17" s="27"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="28" t="s">
         <v>19</v>
@@ -4351,7 +4354,7 @@
       <c r="N18" s="33"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="34" t="s">
         <v>20</v>
@@ -4403,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -4448,7 +4451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="13" t="s">
         <v>17</v>
@@ -4476,7 +4479,7 @@
       <c r="N21" s="21"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -4504,7 +4507,7 @@
       <c r="N22" s="27"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="28" t="s">
         <v>19</v>
@@ -4532,7 +4535,7 @@
       <c r="N23" s="33"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
       <c r="B24" s="34" t="s">
         <v>20</v>
@@ -4631,7 +4634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57">
         <v>2</v>
       </c>
@@ -4665,7 +4668,7 @@
       <c r="N26" s="21"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="22" t="s">
         <v>18</v>
@@ -4695,7 +4698,7 @@
       <c r="N27" s="27"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="28" t="s">
         <v>19</v>
@@ -4725,7 +4728,7 @@
       <c r="N28" s="33"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="34" t="s">
         <v>20</v>
@@ -4777,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30:I30" si="1">B25</f>
@@ -4830,7 +4833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="13" t="s">
         <v>17</v>
@@ -4858,7 +4861,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="22" t="s">
         <v>18</v>
@@ -4886,7 +4889,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="28" t="s">
         <v>19</v>
@@ -4914,7 +4917,7 @@
       <c r="N33" s="33"/>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="34" t="s">
         <v>20</v>
@@ -4966,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="4" t="s">
         <v>5</v>
@@ -5011,7 +5014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="13" t="s">
         <v>17</v>
@@ -5039,7 +5042,7 @@
       <c r="N36" s="21"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="22" t="s">
         <v>18</v>
@@ -5067,7 +5070,7 @@
       <c r="N37" s="27"/>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="28" t="s">
         <v>19</v>
@@ -5095,7 +5098,7 @@
       <c r="N38" s="33"/>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="34" t="s">
         <v>20</v>
@@ -5147,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
@@ -5192,7 +5195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="58"/>
       <c r="B41" s="13" t="s">
         <v>17</v>
@@ -5220,7 +5223,7 @@
       <c r="N41" s="21"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
       <c r="B42" s="22" t="s">
         <v>18</v>
@@ -5248,7 +5251,7 @@
       <c r="N42" s="27"/>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
       <c r="B43" s="28" t="s">
         <v>19</v>
@@ -5276,7 +5279,7 @@
       <c r="N43" s="33"/>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="59"/>
       <c r="B44" s="34" t="s">
         <v>20</v>
@@ -5375,7 +5378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="57">
         <v>3</v>
       </c>
@@ -5405,7 +5408,7 @@
       <c r="N46" s="21"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="22" t="s">
         <v>18</v>
@@ -5433,7 +5436,7 @@
       <c r="N47" s="27"/>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="58"/>
       <c r="B48" s="28" t="s">
         <v>19</v>
@@ -5461,7 +5464,7 @@
       <c r="N48" s="33"/>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="34" t="s">
         <v>20</v>
@@ -5513,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
       <c r="B50" s="43" t="str">
         <f t="shared" ref="B50:I50" si="2">B45</f>
@@ -5566,7 +5569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="13" t="s">
         <v>17</v>
@@ -5594,7 +5597,7 @@
       <c r="N51" s="21"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="58"/>
       <c r="B52" s="22" t="s">
         <v>18</v>
@@ -5622,7 +5625,7 @@
       <c r="N52" s="27"/>
       <c r="O52" s="24"/>
     </row>
-    <row r="53" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
       <c r="B53" s="28" t="s">
         <v>19</v>
@@ -5650,7 +5653,7 @@
       <c r="N53" s="33"/>
       <c r="O53" s="24"/>
     </row>
-    <row r="54" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="B54" s="34" t="s">
         <v>20</v>
@@ -5702,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
       <c r="B55" s="4" t="s">
         <v>5</v>
@@ -5747,7 +5750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="B56" s="13" t="s">
         <v>17</v>
@@ -5775,7 +5778,7 @@
       <c r="N56" s="21"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
@@ -5803,7 +5806,7 @@
       <c r="N57" s="27"/>
       <c r="O57" s="24"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="28" t="s">
         <v>19</v>
@@ -5831,7 +5834,7 @@
       <c r="N58" s="33"/>
       <c r="O58" s="24"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
       <c r="B59" s="34" t="s">
         <v>20</v>
@@ -5883,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
       <c r="B60" s="4" t="s">
         <v>5</v>
@@ -5928,7 +5931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="58"/>
       <c r="B61" s="13" t="s">
         <v>17</v>
@@ -5956,7 +5959,7 @@
       <c r="N61" s="21"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
       <c r="B62" s="22" t="s">
         <v>18</v>
@@ -5984,7 +5987,7 @@
       <c r="N62" s="27"/>
       <c r="O62" s="24"/>
     </row>
-    <row r="63" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="28" t="s">
         <v>19</v>
@@ -6012,7 +6015,7 @@
       <c r="N63" s="33"/>
       <c r="O63" s="24"/>
     </row>
-    <row r="64" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="59"/>
       <c r="B64" s="34" t="s">
         <v>20</v>
@@ -6101,7 +6104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6165,7 +6168,7 @@
       <c r="N2" s="72"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="75"/>
       <c r="B3" s="76"/>
       <c r="C3" s="79"/>
@@ -6186,7 +6189,7 @@
       </c>
       <c r="O3" s="87"/>
     </row>
-    <row r="4" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="77"/>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -6207,7 +6210,7 @@
       </c>
       <c r="O4" s="87"/>
     </row>
-    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57">
         <v>1</v>
       </c>
@@ -6312,7 +6315,7 @@
       <c r="N7" s="27"/>
       <c r="O7" s="24"/>
     </row>
-    <row r="8" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="28" t="s">
         <v>19</v>
@@ -6340,7 +6343,7 @@
       <c r="N8" s="33"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="34" t="s">
         <v>20</v>
@@ -6392,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="43" t="str">
         <f t="shared" ref="B10:I10" si="0">B5</f>
@@ -6445,7 +6448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="13" t="s">
         <v>17</v>
@@ -6501,7 +6504,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="28" t="s">
         <v>19</v>
@@ -6529,7 +6532,7 @@
       <c r="N13" s="33"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="34" t="s">
         <v>20</v>
@@ -6581,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -6626,7 +6629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="13" t="s">
         <v>17</v>
@@ -6682,7 +6685,7 @@
       <c r="N17" s="27"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="28" t="s">
         <v>19</v>
@@ -6710,7 +6713,7 @@
       <c r="N18" s="33"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="34" t="s">
         <v>20</v>
@@ -6762,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -6807,7 +6810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="13" t="s">
         <v>17</v>
@@ -6835,7 +6838,7 @@
       <c r="N21" s="21"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -6863,7 +6866,7 @@
       <c r="N22" s="27"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="28" t="s">
         <v>19</v>
@@ -6891,7 +6894,7 @@
       <c r="N23" s="33"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
       <c r="B24" s="34" t="s">
         <v>20</v>
@@ -6990,7 +6993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57">
         <v>2</v>
       </c>
@@ -7024,7 +7027,7 @@
       <c r="N26" s="21"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="22" t="s">
         <v>18</v>
@@ -7054,7 +7057,7 @@
       <c r="N27" s="27"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="28" t="s">
         <v>19</v>
@@ -7084,7 +7087,7 @@
       <c r="N28" s="33"/>
       <c r="O28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="34" t="s">
         <v>20</v>
@@ -7136,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30:I30" si="1">B25</f>
@@ -7189,7 +7192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="13" t="s">
         <v>17</v>
@@ -7217,7 +7220,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="22" t="s">
         <v>18</v>
@@ -7245,7 +7248,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="28" t="s">
         <v>19</v>
@@ -7273,7 +7276,7 @@
       <c r="N33" s="33"/>
       <c r="O33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="34" t="s">
         <v>20</v>
@@ -7325,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="4" t="s">
         <v>5</v>
@@ -7370,7 +7373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="13" t="s">
         <v>17</v>
@@ -7398,7 +7401,7 @@
       <c r="N36" s="21"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="22" t="s">
         <v>18</v>
@@ -7426,7 +7429,7 @@
       <c r="N37" s="27"/>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="28" t="s">
         <v>19</v>
@@ -7454,7 +7457,7 @@
       <c r="N38" s="33"/>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="34" t="s">
         <v>20</v>
@@ -7506,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
@@ -7551,7 +7554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="58"/>
       <c r="B41" s="13" t="s">
         <v>17</v>
@@ -7579,7 +7582,7 @@
       <c r="N41" s="21"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
       <c r="B42" s="22" t="s">
         <v>18</v>
@@ -7607,7 +7610,7 @@
       <c r="N42" s="27"/>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
       <c r="B43" s="28" t="s">
         <v>19</v>
@@ -7635,7 +7638,7 @@
       <c r="N43" s="33"/>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="59"/>
       <c r="B44" s="34" t="s">
         <v>20</v>
@@ -7734,7 +7737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="57">
         <v>3</v>
       </c>
@@ -7764,7 +7767,7 @@
       <c r="N46" s="21"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="22" t="s">
         <v>18</v>
@@ -7792,7 +7795,7 @@
       <c r="N47" s="27"/>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="58"/>
       <c r="B48" s="28" t="s">
         <v>19</v>
@@ -7820,7 +7823,7 @@
       <c r="N48" s="33"/>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="34" t="s">
         <v>20</v>
@@ -7872,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
       <c r="B50" s="43" t="str">
         <f t="shared" ref="B50:I50" si="2">B45</f>
@@ -7925,7 +7928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="13" t="s">
         <v>17</v>
@@ -7953,7 +7956,7 @@
       <c r="N51" s="21"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="58"/>
       <c r="B52" s="22" t="s">
         <v>18</v>
@@ -7981,7 +7984,7 @@
       <c r="N52" s="27"/>
       <c r="O52" s="24"/>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
       <c r="B53" s="28" t="s">
         <v>19</v>
@@ -8009,7 +8012,7 @@
       <c r="N53" s="33"/>
       <c r="O53" s="24"/>
     </row>
-    <row r="54" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="B54" s="34" t="s">
         <v>20</v>
@@ -8061,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
       <c r="B55" s="4" t="s">
         <v>5</v>
@@ -8106,7 +8109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="B56" s="13" t="s">
         <v>17</v>
@@ -8134,7 +8137,7 @@
       <c r="N56" s="21"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
@@ -8162,7 +8165,7 @@
       <c r="N57" s="27"/>
       <c r="O57" s="24"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="28" t="s">
         <v>19</v>
@@ -8190,7 +8193,7 @@
       <c r="N58" s="33"/>
       <c r="O58" s="24"/>
     </row>
-    <row r="59" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
       <c r="B59" s="34" t="s">
         <v>20</v>
@@ -8242,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
       <c r="B60" s="4" t="s">
         <v>5</v>
@@ -8287,7 +8290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="58"/>
       <c r="B61" s="13" t="s">
         <v>17</v>
@@ -8315,7 +8318,7 @@
       <c r="N61" s="21"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
       <c r="B62" s="22" t="s">
         <v>18</v>
@@ -8343,7 +8346,7 @@
       <c r="N62" s="27"/>
       <c r="O62" s="24"/>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="28" t="s">
         <v>19</v>
@@ -8371,7 +8374,7 @@
       <c r="N63" s="33"/>
       <c r="O63" s="24"/>
     </row>
-    <row r="64" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="59"/>
       <c r="B64" s="34" t="s">
         <v>20</v>
@@ -8460,13 +8463,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9387,29 +9392,43 @@
         <v>18</v>
       </c>
       <c r="C27" s="61"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="E27" s="23">
+        <v>5.4210000000000003</v>
+      </c>
       <c r="F27" s="16">
         <v>59.2</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="23">
+        <v>99</v>
+      </c>
       <c r="H27" s="17">
         <f>(D27*3600)/F27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18" t="e">
+        <v>456.08108108108104</v>
+      </c>
+      <c r="I27" s="18">
         <f>G27/H27</f>
-        <v>#DIV/0!</v>
+        <v>0.21706666666666669</v>
       </c>
       <c r="J27" s="14">
         <f>D27-E27</f>
-        <v>0</v>
+        <v>2.0789999999999997</v>
       </c>
       <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="L27" s="26">
+        <v>7</v>
+      </c>
+      <c r="M27" s="24">
+        <v>643.327</v>
+      </c>
+      <c r="N27" s="27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="24">
+        <v>1283.6369999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
@@ -9449,20 +9468,20 @@
       <c r="C29" s="62"/>
       <c r="D29" s="35">
         <f>SUM(D26:D28)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E29" s="36">
         <f>SUM(E26:E28)</f>
-        <v>0</v>
+        <v>5.4210000000000003</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="36">
         <f>SUM(G26:G28)</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H29" s="38">
         <f>SUM(H26:H28)</f>
-        <v>0</v>
+        <v>456.08108108108104</v>
       </c>
       <c r="I29" s="39" t="e">
         <f>AVERAGE(I26:I28)</f>
@@ -9470,27 +9489,27 @@
       </c>
       <c r="J29" s="37">
         <f>SUM(J26:J28)</f>
-        <v>0</v>
+        <v>2.0789999999999997</v>
       </c>
       <c r="K29" s="40">
         <f>IFERROR(J29/D29,0)</f>
-        <v>0</v>
+        <v>0.27719999999999995</v>
       </c>
       <c r="L29" s="41">
         <f>SUM(L26:L28)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M29" s="37">
         <f>SUM(M26:M28)</f>
-        <v>0</v>
+        <v>643.327</v>
       </c>
       <c r="N29" s="42">
         <f>SUM(N26:N28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="37">
         <f>SUM(O26:O28)</f>
-        <v>0</v>
+        <v>1283.6369999999999</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10817,13 +10836,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11744,43 +11765,29 @@
         <v>18</v>
       </c>
       <c r="C27" s="61"/>
-      <c r="D27" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="E27" s="23">
-        <v>5.4210000000000003</v>
-      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="16">
         <v>59.2</v>
       </c>
-      <c r="G27" s="23">
-        <v>99</v>
-      </c>
+      <c r="G27" s="23"/>
       <c r="H27" s="17">
         <f>(D27*3600)/F27</f>
-        <v>456.08108108108104</v>
-      </c>
-      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18" t="e">
         <f>G27/H27</f>
-        <v>0.21706666666666669</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J27" s="14">
         <f>D27-E27</f>
-        <v>2.0789999999999997</v>
+        <v>0</v>
       </c>
       <c r="K27" s="25"/>
-      <c r="L27" s="26">
-        <v>7</v>
-      </c>
-      <c r="M27" s="24">
-        <v>643.327</v>
-      </c>
-      <c r="N27" s="27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="24">
-        <v>1283.6369999999999</v>
-      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
@@ -11820,20 +11827,20 @@
       <c r="C29" s="62"/>
       <c r="D29" s="35">
         <f>SUM(D26:D28)</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="36">
         <f>SUM(E26:E28)</f>
-        <v>5.4210000000000003</v>
+        <v>0</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="36">
         <f>SUM(G26:G28)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H29" s="38">
         <f>SUM(H26:H28)</f>
-        <v>456.08108108108104</v>
+        <v>0</v>
       </c>
       <c r="I29" s="39" t="e">
         <f>AVERAGE(I26:I28)</f>
@@ -11841,27 +11848,27 @@
       </c>
       <c r="J29" s="37">
         <f>SUM(J26:J28)</f>
-        <v>2.0789999999999997</v>
+        <v>0</v>
       </c>
       <c r="K29" s="40">
         <f>IFERROR(J29/D29,0)</f>
-        <v>0.27719999999999995</v>
+        <v>0</v>
       </c>
       <c r="L29" s="41">
         <f>SUM(L26:L28)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M29" s="37">
         <f>SUM(M26:M28)</f>
-        <v>643.327</v>
+        <v>0</v>
       </c>
       <c r="N29" s="42">
         <f>SUM(N26:N28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="37">
         <f>SUM(O26:O28)</f>
-        <v>1283.6369999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13188,13 +13195,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13352,7 +13361,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
       <c r="H6" s="17" t="e">
-        <f>(D6*3600)/F6</f>
+        <f t="shared" ref="H6:H7" si="0">(D6*3600)/F6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="18" t="e">
@@ -13380,7 +13389,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="23"/>
       <c r="H7" s="17" t="e">
-        <f>(D7*3600)/F7</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="18" t="e">
@@ -13480,35 +13489,35 @@
     <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="43" t="str">
-        <f t="shared" ref="B10:I10" si="0">B5</f>
+        <f t="shared" ref="B10:I10" si="1">B5</f>
         <v>Shift</v>
       </c>
       <c r="C10" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Line</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Worked Length (Hrs</v>
       </c>
       <c r="E10" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Effective Length (Hrs</v>
       </c>
       <c r="F10" s="46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Rate</v>
       </c>
       <c r="G10" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Prod. (Pcs)</v>
       </c>
       <c r="H10" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Target (Pcs)</v>
       </c>
       <c r="I10" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Yield</v>
       </c>
       <c r="J10" s="48" t="s">
@@ -14224,35 +14233,35 @@
     <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="43" t="str">
-        <f t="shared" ref="B30:I30" si="1">B25</f>
+        <f t="shared" ref="B30:I30" si="2">B25</f>
         <v>Shift</v>
       </c>
       <c r="C30" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Line</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Worked Length (Hrs</v>
       </c>
       <c r="E30" s="45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Effective Length (Hrs</v>
       </c>
       <c r="F30" s="46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Rate</v>
       </c>
       <c r="G30" s="45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Prod. (Pcs)</v>
       </c>
       <c r="H30" s="47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Target (Pcs)</v>
       </c>
       <c r="I30" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Yield</v>
       </c>
       <c r="J30" s="48" t="s">
@@ -14960,35 +14969,35 @@
     <row r="50" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
       <c r="B50" s="43" t="str">
-        <f t="shared" ref="B50:I50" si="2">B45</f>
+        <f t="shared" ref="B50:I50" si="3">B45</f>
         <v>Shift</v>
       </c>
       <c r="C50" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Line</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Worked Length (Hrs</v>
       </c>
       <c r="E50" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Effective Length (Hrs</v>
       </c>
       <c r="F50" s="46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Rate</v>
       </c>
       <c r="G50" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Prod. (Pcs)</v>
       </c>
       <c r="H50" s="47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Target (Pcs)</v>
       </c>
       <c r="I50" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Yield</v>
       </c>
       <c r="J50" s="48" t="s">
@@ -15545,2370 +15554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:O64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:O64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="54" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="65"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="71"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="87"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17" t="e">
-        <f>(D6*3600)/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="18" t="e">
-        <f>G6/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="14">
-        <f>D6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="17" t="e">
-        <f>(D7*3600)/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="18" t="e">
-        <f>G7/H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="14">
-        <f>D7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="24"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="17" t="e">
-        <f>(D8*3600)/F8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="18" t="e">
-        <f>G8/H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="14">
-        <f>D8-E8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="35">
-        <f>SUM(D6:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
-        <f>SUM(E6:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="36">
-        <f>SUM(G6:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="38" t="e">
-        <f>SUM(H6:H8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="39" t="e">
-        <f>AVERAGE(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="37">
-        <f>SUM(J6:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <f>IFERROR(J9/D9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="41">
-        <f>SUM(L6:L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="37">
-        <f>SUM(M6:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="42">
-        <f>SUM(N6:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="37">
-        <f>SUM(O6:O8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="43" t="str">
-        <f t="shared" ref="B10:I10" si="0">B5</f>
-        <v>Shift</v>
-      </c>
-      <c r="C10" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>Line</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Worked Length (Hrs</v>
-      </c>
-      <c r="E10" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>Effective Length (Hrs</v>
-      </c>
-      <c r="F10" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>Rate</v>
-      </c>
-      <c r="G10" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>Prod. (Pcs)</v>
-      </c>
-      <c r="H10" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>Target (Pcs)</v>
-      </c>
-      <c r="I10" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>Yield</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17" t="e">
-        <f>(D11*3600)/F11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="18" t="e">
-        <f>G11/H11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="14">
-        <f>D11-E11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="17" t="e">
-        <f>(D12*3600)/F12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="18" t="e">
-        <f>G12/H12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="14">
-        <f>D12-E12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="24"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="17" t="e">
-        <f>(D13*3600)/F13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="18" t="e">
-        <f>G13/H13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="14">
-        <f>D13-E13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="24"/>
-    </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="35">
-        <f>SUM(D11:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="36">
-        <f>SUM(E11:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36">
-        <f>SUM(G11:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="38" t="e">
-        <f>SUM(H11:H13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="39" t="e">
-        <f>AVERAGE(I11:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="37">
-        <f>SUM(J11:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f>IFERROR(J14/D14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <f>SUM(L11:L13)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="37">
-        <f>SUM(M11:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="42">
-        <f>SUM(N11:N13)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="37">
-        <f>SUM(O11:O13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17" t="e">
-        <f>(D16*3600)/F16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="18" t="e">
-        <f>G16/H16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="14">
-        <f>D16-E16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="17" t="e">
-        <f>(D17*3600)/F17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="18" t="e">
-        <f>G17/H17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="14">
-        <f>D17-E17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="17" t="e">
-        <f>(D18*3600)/F18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="18" t="e">
-        <f>G18/H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="14">
-        <f>D18-E18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="35">
-        <f>SUM(D16:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="36">
-        <f>SUM(E16:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36">
-        <f>SUM(G16:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="38" t="e">
-        <f>SUM(H16:H18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="39" t="e">
-        <f>AVERAGE(I16:I18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="37">
-        <f>SUM(J16:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="40">
-        <f>IFERROR(J19/D19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="41">
-        <f>SUM(L16:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="37">
-        <f>SUM(M16:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="42">
-        <f>SUM(N16:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="37">
-        <f>SUM(O16:O18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="17" t="e">
-        <f>(D21*3600)/F21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="18" t="e">
-        <f>G21/H21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="14">
-        <f>D21-E21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="17" t="e">
-        <f>(D22*3600)/F22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="18" t="e">
-        <f>G22/H22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="14">
-        <f>D22-E22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="17" t="e">
-        <f>(D23*3600)/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="18" t="e">
-        <f>G23/H23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="14">
-        <f>D23-E23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="35">
-        <f>SUM(D21:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="36">
-        <f>SUM(E21:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36">
-        <f>SUM(G21:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="38" t="e">
-        <f>SUM(H21:H23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="39" t="e">
-        <f>AVERAGE(I21:I23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="37">
-        <f>SUM(J21:J23)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="40">
-        <f>IFERROR(J24/D24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="41">
-        <f>SUM(L21:L23)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="37">
-        <f>SUM(M21:M23)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="42">
-        <f>SUM(N21:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="37">
-        <f>SUM(O21:O23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16">
-        <v>59.2</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="17">
-        <f>(D26*3600)/F26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="18" t="e">
-        <f>G26/H26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="14">
-        <f>D26-E26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="16">
-        <v>59.2</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="17">
-        <f>(D27*3600)/F27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18" t="e">
-        <f>G27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="14">
-        <f>D27-E27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="16">
-        <v>59.2</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="17">
-        <f>(D28*3600)/F28</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="18" t="e">
-        <f>G28/H28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="14">
-        <f>D28-E28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="35">
-        <f>SUM(D26:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="36">
-        <f>SUM(E26:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="36">
-        <f>SUM(G26:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="38">
-        <f>SUM(H26:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="39" t="e">
-        <f>AVERAGE(I26:I28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="37">
-        <f>SUM(J26:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="40">
-        <f>IFERROR(J29/D29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="41">
-        <f>SUM(L26:L28)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="37">
-        <f>SUM(M26:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="42">
-        <f>SUM(N26:N28)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="37">
-        <f>SUM(O26:O28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="43" t="str">
-        <f t="shared" ref="B30:I30" si="1">B25</f>
-        <v>Shift</v>
-      </c>
-      <c r="C30" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>Line</v>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Worked Length (Hrs</v>
-      </c>
-      <c r="E30" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Effective Length (Hrs</v>
-      </c>
-      <c r="F30" s="46" t="str">
-        <f t="shared" si="1"/>
-        <v>Rate</v>
-      </c>
-      <c r="G30" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Prod. (Pcs)</v>
-      </c>
-      <c r="H30" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>Target (Pcs)</v>
-      </c>
-      <c r="I30" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>Yield</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O30" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="17" t="e">
-        <f>(D31*3600)/F31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="18" t="e">
-        <f>G31/H31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="14">
-        <f>D31-E31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="17" t="e">
-        <f>(D32*3600)/F32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="18" t="e">
-        <f>G32/H32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="14">
-        <f>D32-E32</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="24"/>
-    </row>
-    <row r="33" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="17" t="e">
-        <f>(D33*3600)/F33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="18" t="e">
-        <f>G33/H33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="14">
-        <f>D33-E33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="24"/>
-    </row>
-    <row r="34" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="35">
-        <f>SUM(D31:D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="36">
-        <f>SUM(E31:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="36">
-        <f>SUM(G31:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="38" t="e">
-        <f>SUM(H31:H33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="39" t="e">
-        <f>AVERAGE(I31:I33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="37">
-        <f>SUM(J31:J33)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="40">
-        <f>IFERROR(J34/D34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="41">
-        <f>SUM(L31:L33)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="37">
-        <f>SUM(M31:M33)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="42">
-        <f>SUM(N31:N33)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="37">
-        <f>SUM(O31:O33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N35" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O35" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="17" t="e">
-        <f>(D36*3600)/F36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="18" t="e">
-        <f>G36/H36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="14">
-        <f>D36-E36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="17" t="e">
-        <f>(D37*3600)/F37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="18" t="e">
-        <f>G37/H37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="14">
-        <f>D37-E37</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="24"/>
-    </row>
-    <row r="38" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="17" t="e">
-        <f>(D38*3600)/F38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="18" t="e">
-        <f>G38/H38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="14">
-        <f>D38-E38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="24"/>
-    </row>
-    <row r="39" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="35">
-        <f>SUM(D36:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="36">
-        <f>SUM(E36:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="36">
-        <f>SUM(G36:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="38" t="e">
-        <f>SUM(H36:H38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="39" t="e">
-        <f>AVERAGE(I36:I38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="37">
-        <f>SUM(J36:J38)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="40">
-        <f>IFERROR(J39/D39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="41">
-        <f>SUM(L36:L38)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="37">
-        <f>SUM(M36:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="42">
-        <f>SUM(N36:N38)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="37">
-        <f>SUM(O36:O38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O40" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="17" t="e">
-        <f>(D41*3600)/F41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="18" t="e">
-        <f>G41/H41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="14">
-        <f>D41-E41</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="17" t="e">
-        <f>(D42*3600)/F42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="18" t="e">
-        <f>G42/H42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="14">
-        <f>D42-E42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="24"/>
-    </row>
-    <row r="43" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="17" t="e">
-        <f>(D43*3600)/F43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="18" t="e">
-        <f>G43/H43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" s="14">
-        <f>D43-E43</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="24"/>
-    </row>
-    <row r="44" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="35">
-        <f>SUM(D41:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="36">
-        <f>SUM(E41:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36">
-        <f>SUM(G41:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="38" t="e">
-        <f>SUM(H41:H43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="39" t="e">
-        <f>AVERAGE(I41:I43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="37">
-        <f>SUM(J41:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="40">
-        <f>IFERROR(J44/D44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="41">
-        <f>SUM(L41:L43)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="37">
-        <f>SUM(M41:M43)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="42">
-        <f>SUM(N41:N43)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="37">
-        <f>SUM(O41:O43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="57">
-        <v>3</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="17" t="e">
-        <f>(D46*3600)/F46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="18" t="e">
-        <f>G46/H46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="14">
-        <f>D46-E46</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="17" t="e">
-        <f>(D47*3600)/F47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="18" t="e">
-        <f>G47/H47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="14">
-        <f>D47-E47</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="17" t="e">
-        <f>(D48*3600)/F48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="18" t="e">
-        <f>G48/H48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="14">
-        <f>D48-E48</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="24"/>
-    </row>
-    <row r="49" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="35">
-        <f>SUM(D46:D48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="36">
-        <f>SUM(E46:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="36">
-        <f>SUM(G46:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="38" t="e">
-        <f>SUM(H46:H48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="39" t="e">
-        <f>AVERAGE(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="37">
-        <f>SUM(J46:J48)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="40">
-        <f>IFERROR(J49/D49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="41">
-        <f>SUM(L46:L48)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="37">
-        <f>SUM(M46:M48)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="42">
-        <f>SUM(N46:N48)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="37">
-        <f>SUM(O46:O48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="43" t="str">
-        <f t="shared" ref="B50:I50" si="2">B45</f>
-        <v>Shift</v>
-      </c>
-      <c r="C50" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>Line</v>
-      </c>
-      <c r="D50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Worked Length (Hrs</v>
-      </c>
-      <c r="E50" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>Effective Length (Hrs</v>
-      </c>
-      <c r="F50" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>Rate</v>
-      </c>
-      <c r="G50" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v>Prod. (Pcs)</v>
-      </c>
-      <c r="H50" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>Target (Pcs)</v>
-      </c>
-      <c r="I50" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>Yield</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N50" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O50" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="17" t="e">
-        <f>(D51*3600)/F51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="18" t="e">
-        <f>G51/H51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="14">
-        <f>D51-E51</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="17" t="e">
-        <f>(D52*3600)/F52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="18" t="e">
-        <f>G52/H52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J52" s="14">
-        <f>D52-E52</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="25"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="24"/>
-    </row>
-    <row r="53" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="17" t="e">
-        <f>(D53*3600)/F53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="18" t="e">
-        <f>G53/H53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" s="14">
-        <f>D53-E53</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="31"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="24"/>
-    </row>
-    <row r="54" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
-      <c r="B54" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="35">
-        <f>SUM(D51:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="36">
-        <f>SUM(E51:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="36">
-        <f>SUM(G51:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="38" t="e">
-        <f>SUM(H51:H53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="39" t="e">
-        <f>AVERAGE(I51:I53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J54" s="37">
-        <f>SUM(J51:J53)</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="40">
-        <f>IFERROR(J54/D54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="41">
-        <f>SUM(L51:L53)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="37">
-        <f>SUM(M51:M53)</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="42">
-        <f>SUM(N51:N53)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="37">
-        <f>SUM(O51:O53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O55" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
-      <c r="B56" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="17" t="e">
-        <f>(D56*3600)/F56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="18" t="e">
-        <f>G56/H56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="14">
-        <f>D56-E56</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="14"/>
-    </row>
-    <row r="57" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
-      <c r="B57" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="17" t="e">
-        <f>(D57*3600)/F57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="18" t="e">
-        <f>G57/H57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="14">
-        <f>D57-E57</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="24"/>
-    </row>
-    <row r="58" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="58"/>
-      <c r="B58" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="17" t="e">
-        <f>(D58*3600)/F58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="18" t="e">
-        <f>G58/H58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="14">
-        <f>D58-E58</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="31"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="24"/>
-    </row>
-    <row r="59" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
-      <c r="B59" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="35">
-        <f>SUM(D56:D58)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="36">
-        <f>SUM(E56:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="36">
-        <f>SUM(G56:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="38" t="e">
-        <f>SUM(H56:H58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="39" t="e">
-        <f>AVERAGE(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="37">
-        <f>SUM(J56:J58)</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="40">
-        <f>IFERROR(J59/D59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="41">
-        <f>SUM(L56:L58)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="37">
-        <f>SUM(M56:M58)</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="42">
-        <f>SUM(N56:N58)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="37">
-        <f>SUM(O56:O58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
-      <c r="B60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O60" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="17" t="e">
-        <f>(D61*3600)/F61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="18" t="e">
-        <f>G61/H61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J61" s="14">
-        <f>D61-E61</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="17" t="e">
-        <f>(D62*3600)/F62</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="18" t="e">
-        <f>G62/H62</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J62" s="14">
-        <f>D62-E62</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="25"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="24"/>
-    </row>
-    <row r="63" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="17" t="e">
-        <f>(D63*3600)/F63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="18" t="e">
-        <f>G63/H63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J63" s="14">
-        <f>D63-E63</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="31"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="24"/>
-    </row>
-    <row r="64" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="59"/>
-      <c r="B64" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="35">
-        <f>SUM(D61:D63)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="36">
-        <f>SUM(E61:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="36">
-        <f>SUM(G61:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="38" t="e">
-        <f>SUM(H61:H63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="39" t="e">
-        <f>AVERAGE(I61:I63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" s="37">
-        <f>SUM(J61:J63)</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="40">
-        <f>IFERROR(J64/D64,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="41">
-        <f>SUM(L61:L63)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="37">
-        <f>SUM(M61:M63)</f>
-        <v>0</v>
-      </c>
-      <c r="N64" s="42">
-        <f>SUM(N61:N63)</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="37">
-        <f>SUM(O61:O63)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C4095-B736-4F0D-A83E-FB76969E7CED}">
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O64"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20219,10 +17869,6 @@
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="C61:C64"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A6:A24"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C11:C14"/>
@@ -20238,20 +17884,40 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
@@ -22559,10 +20225,6 @@
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="C61:C64"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A6:A24"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C11:C14"/>
@@ -22578,6 +20240,10 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master_table.xlsx
+++ b/Master_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81508C1-BB50-4D80-916A-E2B992FAB9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602FA143-779E-4E02-A7D5-5CDA436E2F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="29">
   <si>
     <t>MARTINREA HFS</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Setup time loss</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>CD4FR</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1044,60 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,60 +1144,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1447,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R64" sqref="A1:R64"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,92 +1480,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1618,28 +1624,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -1662,27 +1672,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -1705,27 +1717,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -1748,12 +1762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1771,13 +1785,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -1810,7 +1824,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -1873,11 +1887,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -1916,11 +1930,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1959,11 +1973,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -2002,11 +2016,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -2063,7 +2077,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2117,11 +2131,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -2160,11 +2174,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2203,11 +2217,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2246,11 +2260,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2307,7 +2321,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2361,11 +2375,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2404,11 +2418,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2447,11 +2461,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2490,11 +2504,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2607,13 +2621,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2656,11 +2670,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2701,11 +2715,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2746,11 +2760,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2807,7 +2821,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -2870,11 +2884,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2913,11 +2927,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2956,11 +2970,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -2999,11 +3013,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -3060,7 +3074,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -3114,11 +3128,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -3157,11 +3171,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3200,11 +3214,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3243,11 +3257,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3304,7 +3318,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3358,11 +3372,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3401,11 +3415,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3444,11 +3458,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3487,11 +3501,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3604,28 +3618,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -3648,27 +3666,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -3691,27 +3711,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -3734,12 +3756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3757,13 +3779,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -3796,7 +3818,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -3858,11 +3880,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -3901,11 +3923,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3944,11 +3966,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -3987,11 +4009,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -4048,7 +4070,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -4102,11 +4124,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -4145,11 +4167,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4188,11 +4210,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4231,11 +4253,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4292,7 +4314,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4346,11 +4368,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4389,11 +4411,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4432,11 +4454,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4475,11 +4497,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4537,16 +4559,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -4557,16 +4579,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4579,8 +4601,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection sqref="A1:R64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4602,92 +4624,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4746,28 +4768,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -4790,27 +4816,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -4833,27 +4861,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -4876,12 +4906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -4899,13 +4929,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -4938,7 +4968,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -5001,11 +5031,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -5044,11 +5074,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -5087,11 +5117,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -5130,11 +5160,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -5191,7 +5221,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -5245,11 +5275,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -5288,11 +5318,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -5331,11 +5361,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -5374,11 +5404,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -5435,7 +5465,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5489,11 +5519,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5532,11 +5562,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5575,11 +5605,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5618,11 +5648,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5735,13 +5765,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5784,11 +5814,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -5829,11 +5859,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -5874,11 +5904,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -5935,7 +5965,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -5998,11 +6028,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -6041,11 +6071,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -6084,11 +6114,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -6127,11 +6157,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -6188,7 +6218,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -6242,11 +6272,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -6285,11 +6315,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -6328,11 +6358,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6371,11 +6401,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6432,7 +6462,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6486,11 +6516,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6529,11 +6559,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6572,11 +6602,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6615,11 +6645,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6732,28 +6762,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -6776,27 +6810,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -6819,27 +6855,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -6862,12 +6900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -6885,13 +6923,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -6924,7 +6962,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -6986,11 +7024,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -7029,11 +7067,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -7072,11 +7110,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -7115,11 +7153,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -7176,7 +7214,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -7230,11 +7268,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -7273,11 +7311,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -7316,11 +7354,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -7359,11 +7397,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7420,7 +7458,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7474,11 +7512,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7517,11 +7555,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7560,11 +7598,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7603,11 +7641,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7665,16 +7703,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -7685,16 +7723,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7707,8 +7745,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R64"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7730,92 +7768,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7874,28 +7912,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -7918,27 +7960,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -7961,27 +8005,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -8004,12 +8050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -8027,13 +8073,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -8066,7 +8112,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -8129,11 +8175,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -8172,11 +8218,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -8215,11 +8261,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -8258,11 +8304,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -8319,7 +8365,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -8373,11 +8419,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -8416,11 +8462,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -8459,11 +8505,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -8502,11 +8548,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -8563,7 +8609,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8617,11 +8663,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8660,11 +8706,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8703,11 +8749,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8746,11 +8792,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8863,13 +8909,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -8912,11 +8958,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -8957,11 +9003,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -9002,11 +9048,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -9063,7 +9109,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -9126,11 +9172,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -9169,11 +9215,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -9212,11 +9258,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -9255,11 +9301,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -9316,7 +9362,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -9370,11 +9416,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -9413,11 +9459,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -9456,11 +9502,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -9499,11 +9545,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9560,7 +9606,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9614,11 +9660,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9657,11 +9703,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9700,11 +9746,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9743,11 +9789,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9860,28 +9906,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -9904,27 +9954,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -9947,27 +9999,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -9990,12 +10044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -10013,13 +10067,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -10052,7 +10106,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -10114,11 +10168,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -10157,11 +10211,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -10200,11 +10254,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -10243,11 +10297,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -10304,7 +10358,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -10358,11 +10412,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -10401,11 +10455,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -10444,11 +10498,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -10487,11 +10541,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -10548,7 +10602,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10602,11 +10656,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10645,11 +10699,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10688,11 +10742,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10731,11 +10785,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10793,16 +10847,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -10813,16 +10867,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10835,8 +10889,8 @@
   </sheetPr>
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10861,126 +10915,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="85"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -11039,28 +11093,32 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -11084,26 +11142,28 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -11127,26 +11187,28 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -11170,11 +11232,11 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -11192,13 +11254,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -11231,7 +11293,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -11294,11 +11356,11 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -11337,11 +11399,11 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -11380,11 +11442,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -11423,11 +11485,11 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -11484,7 +11546,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -11538,11 +11600,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -11581,11 +11643,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -11624,11 +11686,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -11667,11 +11729,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11728,7 +11790,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11782,11 +11844,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11825,11 +11887,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11868,11 +11930,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11911,11 +11973,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -12028,13 +12090,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -12077,11 +12139,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -12122,11 +12184,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -12167,11 +12229,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -12228,7 +12290,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -12291,11 +12353,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -12334,11 +12396,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -12377,11 +12439,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -12420,11 +12482,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -12481,7 +12543,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -12535,11 +12597,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -12578,11 +12640,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -12621,11 +12683,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -12664,11 +12726,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12725,7 +12787,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12779,11 +12841,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12822,11 +12884,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12865,11 +12927,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -12908,11 +12970,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -13025,28 +13087,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -13070,26 +13136,28 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -13113,26 +13181,28 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -13156,11 +13226,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -13178,13 +13248,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -13217,7 +13287,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -13279,11 +13349,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -13322,11 +13392,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -13365,11 +13435,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -13408,11 +13478,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -13469,7 +13539,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -13523,11 +13593,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -13566,11 +13636,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -13609,11 +13679,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -13652,11 +13722,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -13713,7 +13783,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13767,11 +13837,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13810,11 +13880,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13853,11 +13923,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -13896,11 +13966,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -13958,21 +14028,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -13989,6 +14044,21 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14001,8 +14071,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:R64"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14024,92 +14094,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -14168,28 +14238,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -14212,27 +14286,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -14255,27 +14331,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -14298,12 +14376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -14321,13 +14399,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -14360,7 +14438,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -14423,11 +14501,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -14466,11 +14544,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -14509,11 +14587,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -14552,11 +14630,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -14613,7 +14691,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -14667,11 +14745,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -14710,11 +14788,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -14753,11 +14831,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -14796,11 +14874,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -14857,7 +14935,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -14911,11 +14989,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -14954,11 +15032,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -14997,11 +15075,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -15040,11 +15118,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -15157,13 +15235,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -15206,11 +15284,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -15251,11 +15329,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -15296,11 +15374,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -15357,7 +15435,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -15420,11 +15498,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -15463,11 +15541,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -15506,11 +15584,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -15549,11 +15627,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -15610,7 +15688,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -15664,11 +15742,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -15707,11 +15785,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -15750,11 +15828,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -15793,11 +15871,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -15854,7 +15932,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -15908,11 +15986,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -15951,11 +16029,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -15994,11 +16072,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -16037,11 +16115,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -16154,28 +16232,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -16198,27 +16280,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -16241,27 +16325,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -16284,12 +16370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -16307,13 +16393,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -16346,7 +16432,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -16408,11 +16494,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -16451,11 +16537,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -16494,11 +16580,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -16537,11 +16623,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -16598,7 +16684,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -16652,11 +16738,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -16695,11 +16781,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -16738,11 +16824,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -16781,11 +16867,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -16842,7 +16928,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -16896,11 +16982,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -16939,11 +17025,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -16982,11 +17068,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -17025,11 +17111,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -17087,24 +17173,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -17117,6 +17185,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17129,8 +17215,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R64"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17152,92 +17238,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -17296,28 +17382,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -17340,27 +17430,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -17383,27 +17475,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -17426,12 +17520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -17449,13 +17543,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -17488,7 +17582,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -17551,11 +17645,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -17594,11 +17688,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -17637,11 +17731,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -17680,11 +17774,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -17741,7 +17835,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -17795,11 +17889,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -17838,11 +17932,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -17881,11 +17975,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -17924,11 +18018,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -17985,7 +18079,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -18039,11 +18133,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -18082,11 +18176,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -18125,11 +18219,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -18168,11 +18262,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -18285,13 +18379,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -18334,11 +18428,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -18379,11 +18473,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -18424,11 +18518,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -18485,7 +18579,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -18548,11 +18642,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -18591,11 +18685,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -18634,11 +18728,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -18677,11 +18771,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -18738,7 +18832,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -18792,11 +18886,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -18835,11 +18929,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -18878,11 +18972,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -18921,11 +19015,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -18982,7 +19076,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -19036,11 +19130,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -19079,11 +19173,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -19122,11 +19216,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -19165,11 +19259,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -19282,28 +19376,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -19326,27 +19424,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -19369,27 +19469,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -19412,12 +19514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -19435,13 +19537,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -19474,7 +19576,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -19536,11 +19638,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -19579,11 +19681,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -19622,11 +19724,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -19665,11 +19767,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -19726,7 +19828,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -19780,11 +19882,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -19823,11 +19925,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -19866,11 +19968,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -19909,11 +20011,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -19970,7 +20072,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -20024,11 +20126,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -20067,11 +20169,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -20110,11 +20212,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -20153,11 +20255,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -20215,24 +20317,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -20245,6 +20329,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20254,99 +20356,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C4095-B736-4F0D-A83E-FB76969E7CED}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:R64"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -20405,28 +20507,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -20449,27 +20555,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -20492,27 +20600,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -20535,12 +20645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -20558,13 +20668,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -20597,7 +20707,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -20660,11 +20770,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -20703,11 +20813,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -20746,11 +20856,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -20789,11 +20899,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -20850,7 +20960,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -20904,11 +21014,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -20947,11 +21057,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -20990,11 +21100,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -21033,11 +21143,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -21094,7 +21204,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -21148,11 +21258,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -21191,11 +21301,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -21234,11 +21344,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -21277,11 +21387,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -21394,13 +21504,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -21443,11 +21553,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -21488,11 +21598,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -21533,11 +21643,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -21594,7 +21704,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -21657,11 +21767,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -21700,11 +21810,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -21743,11 +21853,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -21786,11 +21896,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -21847,7 +21957,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -21901,11 +22011,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -21944,11 +22054,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -21987,11 +22097,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -22030,11 +22140,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -22091,7 +22201,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -22145,11 +22255,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -22188,11 +22298,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -22231,11 +22341,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -22274,11 +22384,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -22391,28 +22501,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -22435,27 +22549,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -22478,27 +22594,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -22521,12 +22639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -22544,13 +22662,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -22583,7 +22701,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -22645,11 +22763,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -22688,11 +22806,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -22731,11 +22849,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -22774,11 +22892,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -22835,7 +22953,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -22889,11 +23007,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -22932,11 +23050,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -22975,11 +23093,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -23018,11 +23136,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -23079,7 +23197,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -23133,11 +23251,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -23176,11 +23294,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -23219,11 +23337,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -23262,11 +23380,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -23324,21 +23442,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -23354,6 +23457,21 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23363,99 +23481,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="95"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="71" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="71" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -23514,28 +23632,32 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="74" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58">
         <f>D6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16">
         <f>(D6*3600)/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f>I6-H6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="69" t="e">
         <f>(N6+Q6)/D6</f>
@@ -23558,27 +23680,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
         <f t="shared" ref="F7:F8" si="0">D7-E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16">
         <f>(D7*3600)/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f>I7-H7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="69" t="e">
         <f t="shared" ref="K7:K8" si="1">(N7+Q7)/D7</f>
@@ -23601,27 +23725,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16">
         <f>(D8*3600)/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f>I8-H8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="69" t="e">
         <f t="shared" si="1"/>
@@ -23644,12 +23770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -23667,13 +23793,13 @@
         <f>SUM(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="e">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f>SUM(J6:J8)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="e">
         <f>AVERAGE(K6:K8)</f>
@@ -23706,7 +23832,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -23769,11 +23895,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -23812,11 +23938,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -23855,11 +23981,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -23898,11 +24024,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -23959,7 +24085,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -24013,11 +24139,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -24056,11 +24182,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -24099,11 +24225,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -24142,11 +24268,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -24203,7 +24329,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -24257,11 +24383,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -24300,11 +24426,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -24343,11 +24469,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -24386,11 +24512,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -24503,13 +24629,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -24552,11 +24678,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -24597,11 +24723,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -24642,11 +24768,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -24703,7 +24829,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -24766,11 +24892,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -24809,11 +24935,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -24852,11 +24978,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -24895,11 +25021,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -24956,7 +25082,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -25010,11 +25136,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -25053,11 +25179,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -25096,11 +25222,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -25139,11 +25265,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -25200,7 +25326,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -25254,11 +25380,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -25297,11 +25423,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -25340,11 +25466,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -25383,11 +25509,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -25500,28 +25626,32 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
         <f>D46-E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>58</v>
+      </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="16" t="e">
+      <c r="I46" s="16">
         <f>(D46*3600)/G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>I46-H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="69" t="e">
         <f>(N46+Q46)/D46</f>
@@ -25544,27 +25674,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
         <f t="shared" ref="F47:F48" si="36">D47-E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>58</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="16" t="e">
+      <c r="I47" s="16">
         <f>(D47*3600)/G47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>I47-H47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K47" s="69" t="e">
         <f t="shared" ref="K47:K48" si="37">(N47+Q47)/D47</f>
@@ -25587,27 +25719,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="26">
+        <v>58</v>
+      </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="16" t="e">
+      <c r="I48" s="16">
         <f>(D48*3600)/G48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>I48-H48</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K48" s="69" t="e">
         <f t="shared" si="37"/>
@@ -25630,12 +25764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -25653,13 +25787,13 @@
         <f>SUM(H46:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="32" t="e">
+      <c r="I49" s="32">
         <f>SUM(I46:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
         <f>SUM(J46:J48)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K49" s="33" t="e">
         <f>AVERAGE(K46:K48)</f>
@@ -25692,7 +25826,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -25754,11 +25888,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -25797,11 +25931,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -25840,11 +25974,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -25883,11 +26017,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -25944,7 +26078,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -25998,11 +26132,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -26041,11 +26175,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -26084,11 +26218,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -26127,11 +26261,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -26188,7 +26322,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -26242,11 +26376,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -26285,11 +26419,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -26328,11 +26462,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -26371,11 +26505,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -26433,21 +26567,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -26463,6 +26582,21 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master_table.xlsx
+++ b/Master_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602FA143-779E-4E02-A7D5-5CDA436E2F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B6D07-664B-40A4-9946-D2B7B7A699D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,22 +1044,43 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,43 +1128,22 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1453,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,92 +1480,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1624,13 +1624,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -1672,12 +1672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -1717,12 +1717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -1762,12 +1762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -1887,11 +1887,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -1930,11 +1930,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1973,11 +1973,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -2016,11 +2016,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -2077,7 +2077,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2131,11 +2131,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -2174,11 +2174,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2217,11 +2217,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2260,11 +2260,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2321,7 +2321,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2375,11 +2375,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2418,11 +2418,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2461,11 +2461,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2504,11 +2504,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2621,13 +2621,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2670,11 +2670,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2715,11 +2715,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2760,11 +2760,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2821,7 +2821,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -2884,11 +2884,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2927,11 +2927,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2970,11 +2970,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -3013,11 +3013,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -3128,11 +3128,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -3171,11 +3171,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3214,11 +3214,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3257,11 +3257,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3318,7 +3318,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3372,11 +3372,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3415,11 +3415,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3458,11 +3458,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3501,11 +3501,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3618,13 +3618,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -3666,12 +3666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -3711,12 +3711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -3756,12 +3756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -3880,11 +3880,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -3923,11 +3923,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3966,11 +3966,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -4009,11 +4009,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -4124,11 +4124,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -4167,11 +4167,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4210,11 +4210,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4253,11 +4253,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4314,7 +4314,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4368,11 +4368,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4411,11 +4411,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4454,11 +4454,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4497,11 +4497,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4559,6 +4559,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4569,26 +4589,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4602,7 +4602,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4624,92 +4624,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4768,13 +4768,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -4816,12 +4816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -4861,12 +4861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -4906,12 +4906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -4968,7 +4968,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -5031,11 +5031,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -5074,11 +5074,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -5117,11 +5117,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -5160,11 +5160,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -5275,11 +5275,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -5318,11 +5318,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -5361,11 +5361,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -5404,11 +5404,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -5465,7 +5465,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5519,11 +5519,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5562,11 +5562,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5605,11 +5605,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5648,11 +5648,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5765,13 +5765,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5814,11 +5814,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -5859,11 +5859,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -5904,11 +5904,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -5965,7 +5965,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -6028,11 +6028,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -6071,11 +6071,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -6114,11 +6114,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -6157,11 +6157,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -6218,7 +6218,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -6272,11 +6272,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -6315,11 +6315,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -6358,11 +6358,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6401,11 +6401,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6462,7 +6462,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6516,11 +6516,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6559,11 +6559,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6602,11 +6602,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6645,11 +6645,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6762,13 +6762,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -6810,12 +6810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -6855,12 +6855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -6900,12 +6900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -6962,7 +6962,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -7024,11 +7024,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -7067,11 +7067,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -7110,11 +7110,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -7153,11 +7153,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -7214,7 +7214,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -7268,11 +7268,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -7311,11 +7311,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -7354,11 +7354,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -7397,11 +7397,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7458,7 +7458,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7512,11 +7512,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7555,11 +7555,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7598,11 +7598,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7641,11 +7641,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7703,6 +7703,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -7713,26 +7733,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7746,7 +7746,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7768,92 +7768,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7912,13 +7912,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -7960,12 +7960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -8005,12 +8005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -8050,12 +8050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -8112,7 +8112,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -8175,11 +8175,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -8218,11 +8218,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -8261,11 +8261,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -8304,11 +8304,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -8365,7 +8365,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -8419,11 +8419,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -8462,11 +8462,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -8505,11 +8505,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -8548,11 +8548,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -8609,7 +8609,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8663,11 +8663,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8706,11 +8706,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8749,11 +8749,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8792,11 +8792,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8909,13 +8909,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -8958,11 +8958,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -9003,11 +9003,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -9048,11 +9048,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -9109,7 +9109,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -9172,11 +9172,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -9215,11 +9215,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -9258,11 +9258,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -9301,11 +9301,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -9416,11 +9416,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -9459,11 +9459,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -9502,11 +9502,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -9545,11 +9545,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9606,7 +9606,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9660,11 +9660,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9703,11 +9703,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9746,11 +9746,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9789,11 +9789,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9906,13 +9906,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -9954,12 +9954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -9999,12 +9999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -10044,12 +10044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -10106,7 +10106,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -10168,11 +10168,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -10211,11 +10211,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -10254,11 +10254,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -10297,11 +10297,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -10358,7 +10358,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -10412,11 +10412,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -10455,11 +10455,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -10498,11 +10498,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -10541,11 +10541,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -10602,7 +10602,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10656,11 +10656,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10699,11 +10699,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10742,11 +10742,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10785,11 +10785,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10847,6 +10847,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -10857,26 +10877,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10890,7 +10890,7 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10915,126 +10915,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="86"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="92"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -11093,13 +11093,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -11142,11 +11142,11 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -11187,11 +11187,11 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -11232,11 +11232,11 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -11293,7 +11293,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -11356,11 +11356,11 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -11399,11 +11399,11 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -11442,11 +11442,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -11485,11 +11485,11 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -11546,7 +11546,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -11600,11 +11600,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -11643,11 +11643,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -11686,11 +11686,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -11729,11 +11729,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11790,7 +11790,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11844,11 +11844,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11887,11 +11887,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11930,11 +11930,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11973,11 +11973,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -12090,13 +12090,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -12139,11 +12139,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -12184,11 +12184,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -12229,11 +12229,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -12290,7 +12290,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -12353,11 +12353,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -12396,11 +12396,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -12439,11 +12439,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -12482,11 +12482,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -12543,7 +12543,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -12597,11 +12597,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -12640,11 +12640,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -12683,11 +12683,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -12726,11 +12726,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12787,7 +12787,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12841,11 +12841,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12884,11 +12884,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12927,11 +12927,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -12970,11 +12970,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -13087,13 +13087,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -13136,11 +13136,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -13181,11 +13181,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -13226,11 +13226,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -13287,7 +13287,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -13349,11 +13349,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -13392,11 +13392,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -13435,11 +13435,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -13478,11 +13478,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -13539,7 +13539,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -13593,11 +13593,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -13636,11 +13636,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -13679,11 +13679,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -13722,11 +13722,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -13783,7 +13783,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13837,11 +13837,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13880,11 +13880,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13923,11 +13923,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -13966,11 +13966,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -14028,6 +14028,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -14044,21 +14059,6 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14072,7 +14072,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14094,92 +14094,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -14238,13 +14238,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -14286,12 +14286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -14331,12 +14331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -14376,12 +14376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -14438,7 +14438,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -14501,11 +14501,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -14544,11 +14544,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -14587,11 +14587,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -14630,11 +14630,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -14691,7 +14691,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -14745,11 +14745,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -14788,11 +14788,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -14831,11 +14831,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -14874,11 +14874,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -14935,7 +14935,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -14989,11 +14989,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -15032,11 +15032,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -15075,11 +15075,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -15118,11 +15118,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -15235,13 +15235,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -15284,11 +15284,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -15329,11 +15329,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -15374,11 +15374,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -15435,7 +15435,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -15498,11 +15498,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -15541,11 +15541,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -15584,11 +15584,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -15627,11 +15627,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -15688,7 +15688,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -15742,11 +15742,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -15785,11 +15785,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -15828,11 +15828,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -15871,11 +15871,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -15932,7 +15932,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -15986,11 +15986,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -16029,11 +16029,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -16072,11 +16072,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -16115,11 +16115,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -16232,13 +16232,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -16248,7 +16248,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -16280,12 +16280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -16325,12 +16325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -16370,12 +16370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -16432,7 +16432,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -16494,11 +16494,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -16537,11 +16537,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -16580,11 +16580,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -16623,11 +16623,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -16684,7 +16684,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -16738,11 +16738,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -16781,11 +16781,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -16824,11 +16824,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -16867,11 +16867,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -16928,7 +16928,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -16982,11 +16982,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -17025,11 +17025,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -17068,11 +17068,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -17111,11 +17111,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -17173,6 +17173,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -17185,24 +17203,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17216,7 +17216,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17238,92 +17238,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -17382,13 +17382,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -17430,12 +17430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -17475,12 +17475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -17520,12 +17520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -17582,7 +17582,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -17645,11 +17645,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -17688,11 +17688,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -17731,11 +17731,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -17774,11 +17774,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -17835,7 +17835,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -17889,11 +17889,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -17932,11 +17932,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -17975,11 +17975,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -18018,11 +18018,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -18079,7 +18079,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -18133,11 +18133,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -18176,11 +18176,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -18219,11 +18219,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -18262,11 +18262,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -18379,13 +18379,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -18428,11 +18428,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -18473,11 +18473,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -18518,11 +18518,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -18579,7 +18579,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -18642,11 +18642,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -18685,11 +18685,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -18728,11 +18728,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -18771,11 +18771,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -18832,7 +18832,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -18886,11 +18886,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -18929,11 +18929,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -18972,11 +18972,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -19015,11 +19015,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -19076,7 +19076,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -19130,11 +19130,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -19173,11 +19173,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -19216,11 +19216,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -19259,11 +19259,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -19376,13 +19376,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -19424,12 +19424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -19469,12 +19469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -19482,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -19514,12 +19514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -19576,7 +19576,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -19638,11 +19638,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -19681,11 +19681,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -19724,11 +19724,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -19767,11 +19767,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -19828,7 +19828,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -19882,11 +19882,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -19925,11 +19925,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -19968,11 +19968,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -20011,11 +20011,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -20072,7 +20072,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -20126,11 +20126,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -20169,11 +20169,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -20212,11 +20212,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -20255,11 +20255,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -20317,6 +20317,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -20329,24 +20347,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20357,98 +20357,98 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -20507,13 +20507,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -20555,12 +20555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -20600,12 +20600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -20645,12 +20645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -20707,7 +20707,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -20770,11 +20770,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -20813,11 +20813,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -20856,11 +20856,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -20899,11 +20899,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -20960,7 +20960,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -21014,11 +21014,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -21057,11 +21057,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -21100,11 +21100,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -21143,11 +21143,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -21204,7 +21204,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -21258,11 +21258,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -21301,11 +21301,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -21344,11 +21344,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -21387,11 +21387,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -21504,13 +21504,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -21553,11 +21553,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -21598,11 +21598,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -21643,11 +21643,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -21704,7 +21704,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -21767,11 +21767,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -21810,11 +21810,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -21853,11 +21853,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -21896,11 +21896,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -21957,7 +21957,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -22011,11 +22011,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -22054,11 +22054,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -22097,11 +22097,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -22140,11 +22140,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -22201,7 +22201,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -22255,11 +22255,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -22298,11 +22298,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -22341,11 +22341,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -22384,11 +22384,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -22501,13 +22501,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -22517,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -22549,12 +22549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -22594,12 +22594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -22639,12 +22639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -22701,7 +22701,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -22763,11 +22763,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -22806,11 +22806,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -22849,11 +22849,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -22892,11 +22892,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -22953,7 +22953,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -23007,11 +23007,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -23050,11 +23050,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -23093,11 +23093,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -23136,11 +23136,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -23197,7 +23197,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -23251,11 +23251,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -23294,11 +23294,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -23337,11 +23337,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -23380,11 +23380,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -23442,6 +23442,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -23457,21 +23471,7 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23482,98 +23482,98 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G49"/>
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="89" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="89" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="93"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -23632,13 +23632,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -23680,12 +23680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -23725,12 +23725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="100"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -23770,12 +23770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="100"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -23832,7 +23832,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -23895,11 +23895,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -23938,11 +23938,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -23981,11 +23981,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -24024,11 +24024,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -24085,7 +24085,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -24139,11 +24139,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -24182,11 +24182,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -24225,11 +24225,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -24268,11 +24268,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -24329,7 +24329,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -24383,11 +24383,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -24426,11 +24426,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -24469,11 +24469,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -24512,11 +24512,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -24629,13 +24629,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="99">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -24678,11 +24678,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -24723,11 +24723,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -24768,11 +24768,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -24829,7 +24829,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -24892,11 +24892,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -24935,11 +24935,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -24978,11 +24978,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -25021,11 +25021,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -25082,7 +25082,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -25136,11 +25136,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -25179,11 +25179,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -25222,11 +25222,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -25265,11 +25265,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -25326,7 +25326,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -25380,11 +25380,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -25423,11 +25423,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -25466,11 +25466,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -25509,11 +25509,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="73"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -25626,13 +25626,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+      <c r="A46" s="99">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="102" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="16">
@@ -25674,12 +25674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="21">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16">
@@ -25719,12 +25719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="100"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -25732,7 +25732,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="16">
@@ -25764,12 +25764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="72"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="100"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -25826,7 +25826,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -25888,11 +25888,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -25931,11 +25931,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -25974,11 +25974,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -26017,11 +26017,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -26078,7 +26078,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -26132,11 +26132,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -26175,11 +26175,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -26218,11 +26218,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="75"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -26261,11 +26261,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -26322,7 +26322,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -26376,11 +26376,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -26419,11 +26419,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -26462,11 +26462,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -26505,11 +26505,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -26567,6 +26567,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -26582,21 +26596,7 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master_table.xlsx
+++ b/Master_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B6D07-664B-40A4-9946-D2B7B7A699D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D9421-5A9C-4A66-A7DC-9D9A74BC8BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="32">
   <si>
     <t>MARTINREA HFS</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>CD4FR</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>ELCV</t>
   </si>
 </sst>
 </file>
@@ -1044,43 +1053,22 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,22 +1116,43 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1453,8 +1462,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,92 +1489,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1624,13 +1633,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -1672,12 +1681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -1717,12 +1726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -1762,12 +1771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1824,7 +1833,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -1887,11 +1896,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -1929,12 +1940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1972,12 +1983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -2015,12 +2026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -2077,7 +2088,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2131,11 +2142,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -2173,12 +2186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2216,12 +2229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2259,12 +2272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2321,7 +2334,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2375,11 +2388,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2417,12 +2430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2460,12 +2473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2503,12 +2516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2621,13 +2634,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2669,12 +2682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2714,12 +2727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2759,12 +2772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2821,7 +2834,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -2884,11 +2897,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2926,12 +2939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2969,12 +2982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -3012,12 +3025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -3074,7 +3087,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -3128,11 +3141,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -3170,12 +3183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3213,12 +3226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3256,12 +3269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3318,7 +3331,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3372,11 +3385,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3414,12 +3427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3457,12 +3470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3500,12 +3513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3618,13 +3631,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -3666,12 +3679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -3711,12 +3724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -3756,12 +3769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3818,7 +3831,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -3880,11 +3893,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -3922,12 +3937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3965,12 +3980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -4008,12 +4023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -4070,7 +4085,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -4124,11 +4139,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -4167,11 +4182,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4210,11 +4225,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4253,11 +4268,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4314,7 +4329,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4368,11 +4383,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4411,11 +4426,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4454,11 +4469,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4497,11 +4512,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4559,16 +4574,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -4579,16 +4594,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4601,8 +4616,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4624,92 +4639,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4768,13 +4783,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -4816,12 +4831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -4861,12 +4876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -4906,12 +4921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -4968,7 +4983,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -5031,11 +5046,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -5073,12 +5090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -5116,12 +5133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -5159,12 +5176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -5221,7 +5238,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -5275,11 +5292,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -5317,12 +5336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -5360,12 +5379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -5403,12 +5422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -5465,7 +5484,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5519,11 +5538,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5561,12 +5580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5604,12 +5623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5647,12 +5666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5765,13 +5784,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5813,12 +5832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -5858,12 +5877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -5903,12 +5922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -5965,7 +5984,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -6028,11 +6047,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -6070,12 +6089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -6113,12 +6132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -6156,12 +6175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -6218,7 +6237,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -6272,11 +6291,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -6314,12 +6333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -6357,12 +6376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6400,12 +6419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6462,7 +6481,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6516,11 +6535,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6558,12 +6577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6601,12 +6620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6644,12 +6663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6762,13 +6781,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -6810,12 +6829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -6855,12 +6874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -6900,12 +6919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -6962,7 +6981,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -7024,11 +7043,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -7066,12 +7087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -7109,12 +7130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -7152,12 +7173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -7214,7 +7235,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -7268,11 +7289,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -7311,11 +7332,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -7354,11 +7375,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -7397,11 +7418,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7458,7 +7479,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7512,11 +7533,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7555,11 +7576,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7598,11 +7619,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7641,11 +7662,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7703,16 +7724,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -7723,16 +7744,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7745,8 +7766,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7768,92 +7789,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7912,13 +7933,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -7960,12 +7981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -8005,12 +8026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -8050,12 +8071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -8112,7 +8133,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -8175,11 +8196,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -8217,12 +8240,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -8260,12 +8283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -8303,12 +8326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -8365,7 +8388,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -8419,11 +8442,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -8461,12 +8486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -8504,12 +8529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -8547,12 +8572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -8609,7 +8634,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8663,11 +8688,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8705,12 +8730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8748,12 +8773,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8791,12 +8816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8909,13 +8934,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -8957,12 +8982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -9002,12 +9027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -9047,12 +9072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -9109,7 +9134,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -9172,11 +9197,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -9214,12 +9239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -9257,12 +9282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -9300,12 +9325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -9362,7 +9387,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -9416,11 +9441,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -9458,12 +9483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -9501,12 +9526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -9544,12 +9569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9606,7 +9631,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9660,11 +9685,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9702,12 +9727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9745,12 +9770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9788,12 +9813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9906,13 +9931,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -9954,12 +9979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -9999,12 +10024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -10044,12 +10069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -10106,7 +10131,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -10168,11 +10193,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -10210,12 +10237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -10253,12 +10280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -10296,12 +10323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -10358,7 +10385,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -10412,11 +10439,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -10455,11 +10482,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -10498,11 +10525,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -10541,11 +10568,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -10602,7 +10629,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10656,11 +10683,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10699,11 +10726,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10742,11 +10769,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10785,11 +10812,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10847,16 +10874,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -10867,16 +10894,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10889,8 +10916,8 @@
   </sheetPr>
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10915,126 +10942,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="85"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -11093,13 +11120,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -11141,12 +11168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -11186,12 +11213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -11231,12 +11258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -11293,7 +11320,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -11356,11 +11383,13 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -11398,12 +11427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -11441,12 +11470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -11484,12 +11513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -11546,7 +11575,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -11600,11 +11629,13 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -11642,12 +11673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -11685,12 +11716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -11728,12 +11759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11790,7 +11821,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11844,11 +11875,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11886,12 +11917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11929,12 +11960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11972,12 +12003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -12090,13 +12121,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -12138,12 +12169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -12183,12 +12214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -12228,12 +12259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -12290,7 +12321,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -12353,11 +12384,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -12395,12 +12426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -12438,12 +12469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -12481,12 +12512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -12543,7 +12574,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -12597,11 +12628,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -12639,12 +12670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -12682,12 +12713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -12725,12 +12756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12787,7 +12818,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12841,11 +12872,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12883,12 +12914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12926,12 +12957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -12969,12 +13000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -13087,13 +13118,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -13135,12 +13166,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -13180,12 +13211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -13225,12 +13256,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -13287,7 +13318,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -13349,11 +13380,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -13391,12 +13424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -13434,12 +13467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -13477,12 +13510,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -13539,7 +13572,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -13593,11 +13626,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -13636,11 +13669,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -13679,11 +13712,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -13722,11 +13755,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -13783,7 +13816,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13837,11 +13870,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13880,11 +13913,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13923,11 +13956,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -13966,11 +13999,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -14028,21 +14061,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -14059,6 +14077,21 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14071,8 +14104,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14094,92 +14127,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -14238,13 +14271,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -14286,12 +14319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -14331,12 +14364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -14376,12 +14409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -14438,7 +14471,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -14501,11 +14534,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -14543,12 +14578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -14586,12 +14621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -14629,12 +14664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -14691,7 +14726,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -14745,11 +14780,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -14787,12 +14824,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -14830,12 +14867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -14873,12 +14910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -14935,7 +14972,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -14989,11 +15026,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -15031,12 +15068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -15074,12 +15111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -15117,12 +15154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -15235,13 +15272,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -15283,12 +15320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -15328,12 +15365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -15373,12 +15410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -15435,7 +15472,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -15498,11 +15535,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -15540,12 +15577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -15583,12 +15620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -15626,12 +15663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -15688,7 +15725,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -15742,11 +15779,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -15784,12 +15821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -15827,12 +15864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -15870,12 +15907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -15932,7 +15969,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -15986,11 +16023,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -16028,12 +16065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -16071,12 +16108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -16114,12 +16151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -16232,13 +16269,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -16280,12 +16317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -16325,12 +16362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -16370,12 +16407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -16432,7 +16469,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -16494,11 +16531,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -16536,12 +16575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -16579,12 +16618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -16622,12 +16661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -16684,7 +16723,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -16738,11 +16777,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -16781,11 +16820,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -16824,11 +16863,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -16867,11 +16906,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -16928,7 +16967,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -16982,11 +17021,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -17025,11 +17064,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -17068,11 +17107,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -17111,11 +17150,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -17173,24 +17212,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -17203,6 +17224,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17215,8 +17254,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17238,92 +17277,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -17382,13 +17421,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -17430,12 +17469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -17475,12 +17514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -17520,12 +17559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -17582,7 +17621,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -17645,11 +17684,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -17687,12 +17728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -17730,12 +17771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -17773,12 +17814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -17835,7 +17876,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -17889,11 +17930,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -17931,12 +17974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -17974,12 +18017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -18017,12 +18060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -18079,7 +18122,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -18133,11 +18176,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -18175,12 +18218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -18218,12 +18261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -18261,12 +18304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -18379,13 +18422,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -18427,12 +18470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -18472,12 +18515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -18517,12 +18560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -18579,7 +18622,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -18642,11 +18685,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -18684,12 +18727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -18727,12 +18770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -18770,12 +18813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -18832,7 +18875,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -18886,11 +18929,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -18928,12 +18971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -18971,12 +19014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -19014,12 +19057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -19076,7 +19119,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -19130,11 +19173,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -19172,12 +19215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -19215,12 +19258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -19258,12 +19301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -19376,13 +19419,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -19424,12 +19467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -19469,12 +19512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -19514,12 +19557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -19576,7 +19619,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -19638,11 +19681,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -19680,12 +19725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -19723,12 +19768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -19766,12 +19811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -19828,7 +19873,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -19882,11 +19927,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -19925,11 +19970,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -19968,11 +20013,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -20011,11 +20056,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -20072,7 +20117,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -20126,11 +20171,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -20169,11 +20214,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -20212,11 +20257,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -20255,11 +20300,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -20317,24 +20362,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -20347,6 +20374,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20356,99 +20401,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C4095-B736-4F0D-A83E-FB76969E7CED}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -20507,13 +20552,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -20555,12 +20600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -20600,12 +20645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -20645,12 +20690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -20707,7 +20752,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -20770,11 +20815,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -20812,12 +20859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -20855,12 +20902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -20898,12 +20945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -20960,7 +21007,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -21014,11 +21061,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -21056,12 +21105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -21099,12 +21148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -21142,12 +21191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -21204,7 +21253,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -21258,11 +21307,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -21300,12 +21349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -21343,12 +21392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+    <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -21386,12 +21435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -21504,13 +21553,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -21552,12 +21601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -21597,12 +21646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+    <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -21642,12 +21691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+    <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -21704,7 +21753,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -21767,11 +21816,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -21809,12 +21858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -21852,12 +21901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -21895,12 +21944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -21957,7 +22006,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -22011,11 +22060,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -22053,12 +22102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -22096,12 +22145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -22139,12 +22188,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -22201,7 +22250,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -22255,11 +22304,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -22297,12 +22346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -22340,12 +22389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -22383,12 +22432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -22501,13 +22550,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -22549,12 +22598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -22594,12 +22643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -22639,12 +22688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+    <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -22701,7 +22750,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -22763,11 +22812,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -22805,12 +22856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+    <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -22848,12 +22899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+    <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -22891,12 +22942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+    <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -22953,7 +23004,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -23007,11 +23058,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -23050,11 +23101,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -23093,11 +23144,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -23136,11 +23187,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -23197,7 +23248,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -23251,11 +23302,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -23294,11 +23345,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -23337,11 +23388,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -23380,11 +23431,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -23442,20 +23493,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -23472,6 +23509,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23481,99 +23532,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C6:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -23632,13 +23683,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -23681,11 +23732,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58">
@@ -23726,11 +23777,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58">
@@ -23771,11 +23822,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -23832,7 +23883,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="4">B5</f>
         <v>Shift</v>
@@ -23895,11 +23946,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58">
@@ -23938,11 +23991,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -23981,11 +24034,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -24024,11 +24077,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -24085,7 +24138,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -24139,11 +24192,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58">
@@ -24182,11 +24237,11 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -24225,11 +24280,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -24268,11 +24323,11 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -24329,7 +24384,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -24383,11 +24438,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -24426,11 +24481,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -24469,11 +24524,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -24512,11 +24567,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -24629,13 +24684,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -24678,11 +24733,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -24723,11 +24778,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -24768,11 +24823,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -24829,7 +24884,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="22">B25</f>
         <v>Shift</v>
@@ -24892,11 +24947,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -24935,11 +24990,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -24978,11 +25033,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -25021,11 +25076,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -25082,7 +25137,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -25136,11 +25191,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -25179,11 +25234,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -25222,11 +25277,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -25265,11 +25320,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -25326,7 +25381,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -25380,11 +25435,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -25423,11 +25478,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -25466,11 +25521,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -25509,11 +25564,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -25626,13 +25681,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -25675,11 +25730,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -25720,11 +25775,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -25765,11 +25820,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -25826,7 +25881,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="40">B45</f>
         <v>Shift</v>
@@ -25888,11 +25943,13 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="74" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -25931,11 +25988,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -25974,11 +26031,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -26017,11 +26074,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -26078,7 +26135,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -26132,11 +26189,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -26175,11 +26232,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -26218,11 +26275,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -26261,11 +26318,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -26322,7 +26379,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -26376,11 +26433,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -26419,11 +26476,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -26462,11 +26519,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -26505,11 +26562,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -26567,20 +26624,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -26597,6 +26640,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master_table.xlsx
+++ b/Master_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.engelke\OneDrive - Martinrea Inc\Documents\GitHub\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A2A4B1-8830-4F5B-AC91-8D94FC0A5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC92769D-71FA-47A0-95A6-AD90DF9508BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="33">
   <si>
     <t>MARTINREA HFS</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>ELCV</t>
+  </si>
+  <si>
+    <t>CD4RR</t>
   </si>
 </sst>
 </file>
@@ -1053,43 +1056,22 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,22 +1119,43 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1489,92 +1492,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1633,13 +1636,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -1659,11 +1662,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -1681,11 +1684,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -1703,11 +1706,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -1821,11 +1824,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -1848,11 +1851,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58">
@@ -1873,11 +1876,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58">
@@ -1898,11 +1901,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -1953,7 +1956,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2007,11 +2010,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -2034,11 +2037,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58">
@@ -2059,11 +2062,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58">
@@ -2084,11 +2087,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2193,11 +2196,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -2236,11 +2239,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -2279,11 +2282,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -2322,11 +2325,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -2439,13 +2442,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -2488,11 +2491,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -2533,11 +2536,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -2578,11 +2581,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -2639,7 +2642,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="12">B25</f>
         <v>Shift</v>
@@ -2702,11 +2705,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -2745,11 +2748,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -2788,11 +2791,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -2831,11 +2834,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -2892,7 +2895,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -2946,11 +2949,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -2989,11 +2992,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -3032,11 +3035,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -3075,11 +3078,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -3136,7 +3139,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -3190,11 +3193,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -3233,11 +3236,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -3276,11 +3279,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -3319,11 +3322,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -3436,13 +3439,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -3485,11 +3488,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -3530,11 +3533,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -3575,11 +3578,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -3636,7 +3639,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="30">B45</f>
         <v>Shift</v>
@@ -3698,11 +3701,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -3745,11 +3748,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -3790,11 +3793,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -3835,11 +3838,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -3896,7 +3899,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -3950,11 +3953,11 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -3993,11 +3996,11 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
@@ -4036,11 +4039,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
@@ -4079,11 +4082,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -4140,7 +4143,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -4194,11 +4197,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -4237,11 +4240,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -4280,11 +4283,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -4323,11 +4326,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -4385,16 +4388,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -4405,16 +4408,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4427,8 +4430,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4450,92 +4453,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4594,13 +4597,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -4620,11 +4623,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -4642,11 +4645,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -4664,11 +4667,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -4719,7 +4722,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -4782,11 +4785,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -4806,11 +4809,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -4828,11 +4831,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -4850,11 +4853,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -4905,7 +4908,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4959,11 +4962,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -4983,11 +4986,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -5005,11 +5008,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -5027,11 +5030,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -5082,7 +5085,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -5136,11 +5139,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -5179,11 +5182,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -5222,11 +5225,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -5265,11 +5268,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -5382,13 +5385,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -5431,11 +5434,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -5476,11 +5479,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -5521,11 +5524,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -5582,7 +5585,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -5645,11 +5648,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -5688,11 +5691,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -5731,11 +5734,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -5774,11 +5777,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -5835,7 +5838,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -5889,11 +5892,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -5932,11 +5935,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -5975,11 +5978,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -6018,11 +6021,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -6079,7 +6082,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -6133,11 +6136,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -6176,11 +6179,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -6219,11 +6222,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -6262,11 +6265,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -6379,13 +6382,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -6428,11 +6431,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -6473,11 +6476,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -6518,11 +6521,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -6579,7 +6582,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -6641,11 +6644,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -6688,11 +6691,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -6733,11 +6736,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -6778,11 +6781,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -6839,7 +6842,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -6893,26 +6896,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -6935,27 +6942,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -6978,27 +6987,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -7021,12 +7032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -7044,13 +7055,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -7083,7 +7094,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -7137,11 +7148,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -7180,11 +7191,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -7223,11 +7234,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -7266,11 +7277,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -7328,16 +7339,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -7348,16 +7359,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7370,8 +7381,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7393,92 +7404,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -7537,13 +7548,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -7563,11 +7574,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -7585,11 +7596,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -7607,11 +7618,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -7662,7 +7673,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -7725,11 +7736,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -7749,11 +7760,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -7771,11 +7782,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -7793,11 +7804,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -7848,7 +7859,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -7902,11 +7913,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -7926,11 +7937,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -7948,11 +7959,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -7970,11 +7981,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -8025,7 +8036,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8079,11 +8090,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -8122,11 +8133,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -8165,11 +8176,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -8208,11 +8219,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8325,13 +8336,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -8374,11 +8385,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -8419,11 +8430,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -8464,11 +8475,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -8525,7 +8536,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -8588,11 +8599,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -8631,11 +8642,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -8674,11 +8685,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -8717,11 +8728,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -8778,7 +8789,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -8832,11 +8843,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -8875,11 +8886,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -8918,11 +8929,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -8961,11 +8972,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -9022,7 +9033,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -9076,11 +9087,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -9119,11 +9130,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -9162,11 +9173,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -9205,11 +9216,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -9322,13 +9333,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -9371,11 +9382,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -9416,11 +9427,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -9461,11 +9472,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -9522,7 +9533,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -9584,11 +9595,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -9631,11 +9642,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -9676,11 +9687,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -9721,11 +9732,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -9782,7 +9793,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -9836,26 +9847,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -9878,27 +9893,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -9921,27 +9938,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -9964,12 +9983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -9987,13 +10006,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -10026,7 +10045,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -10080,11 +10099,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -10123,11 +10142,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -10166,11 +10185,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -10209,11 +10228,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -10271,16 +10290,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A6:A24"/>
@@ -10291,16 +10310,16 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10313,8 +10332,8 @@
   </sheetPr>
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10339,126 +10358,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="85"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -10517,13 +10536,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -10543,11 +10562,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -10565,11 +10584,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -10587,11 +10606,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -10642,7 +10661,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -10705,11 +10724,11 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -10729,11 +10748,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -10751,11 +10770,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -10773,11 +10792,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -10828,7 +10847,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -10882,11 +10901,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -10906,11 +10925,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -10928,11 +10947,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -10950,11 +10969,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -11005,7 +11024,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11059,11 +11078,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -11102,11 +11121,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -11145,11 +11164,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -11188,11 +11207,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -11305,13 +11324,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -11354,11 +11373,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -11399,11 +11418,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -11444,11 +11463,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -11505,7 +11524,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -11568,11 +11587,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -11611,11 +11630,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -11654,11 +11673,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -11697,11 +11716,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -11758,7 +11777,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -11812,11 +11831,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -11855,11 +11874,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -11898,11 +11917,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -11941,11 +11960,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -12002,7 +12021,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -12056,11 +12075,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -12099,11 +12118,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -12142,11 +12161,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -12185,11 +12204,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -12302,13 +12321,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -12351,11 +12370,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -12396,11 +12415,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -12441,11 +12460,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -12502,7 +12521,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -12564,11 +12583,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -12611,11 +12630,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -12656,11 +12675,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -12701,11 +12720,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -12762,7 +12781,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -12816,26 +12835,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -12858,27 +12881,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -12901,27 +12926,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -12944,12 +12971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -12967,13 +12994,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -13006,7 +13033,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -13060,11 +13087,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -13103,11 +13130,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -13146,11 +13173,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -13189,11 +13216,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -13251,21 +13278,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R1:AH2"/>
@@ -13282,6 +13294,21 @@
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13294,8 +13321,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13317,92 +13344,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -13461,13 +13488,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -13487,11 +13514,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -13509,11 +13536,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -13531,11 +13558,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -13586,7 +13613,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -13649,11 +13676,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -13673,11 +13700,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -13695,11 +13722,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -13717,11 +13744,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -13772,7 +13799,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -13826,11 +13853,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -13850,11 +13877,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -13872,11 +13899,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -13894,11 +13921,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -13949,7 +13976,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -14003,11 +14030,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -14046,11 +14073,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -14089,11 +14116,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -14132,11 +14159,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -14249,13 +14276,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -14298,11 +14325,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -14343,11 +14370,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -14388,11 +14415,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -14449,7 +14476,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -14512,11 +14539,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -14555,11 +14582,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -14598,11 +14625,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -14641,11 +14668,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -14702,7 +14729,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -14756,11 +14783,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -14799,11 +14826,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -14842,11 +14869,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -14885,11 +14912,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -14946,7 +14973,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -15000,11 +15027,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -15043,11 +15070,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -15086,11 +15113,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -15129,11 +15156,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -15246,13 +15273,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -15295,11 +15322,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -15340,11 +15367,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -15385,11 +15412,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -15446,7 +15473,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -15508,11 +15535,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -15555,11 +15582,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -15600,11 +15627,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -15645,11 +15672,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -15706,7 +15733,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -15760,26 +15787,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -15802,27 +15833,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -15845,27 +15878,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -15888,12 +15923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -15911,13 +15946,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -15950,7 +15985,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -16004,11 +16039,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -16047,11 +16082,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -16090,11 +16125,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -16133,11 +16168,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -16195,24 +16230,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -16225,6 +16242,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16237,8 +16272,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16260,92 +16295,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -16404,13 +16439,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -16430,11 +16465,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -16452,11 +16487,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -16474,11 +16509,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -16529,7 +16564,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -16592,11 +16627,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -16616,11 +16651,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -16638,11 +16673,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -16660,11 +16695,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -16715,7 +16750,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -16769,11 +16804,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -16793,11 +16828,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -16815,11 +16850,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -16837,11 +16872,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -16892,7 +16927,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -16946,11 +16981,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -16989,11 +17024,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -17032,11 +17067,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -17075,11 +17110,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -17192,13 +17227,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -17241,11 +17276,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -17286,11 +17321,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -17331,11 +17366,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -17392,7 +17427,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -17455,11 +17490,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -17498,11 +17533,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -17541,11 +17576,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -17584,11 +17619,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -17645,7 +17680,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -17699,11 +17734,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -17742,11 +17777,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -17785,11 +17820,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -17828,11 +17863,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -17889,7 +17924,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -17943,11 +17978,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -17986,11 +18021,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -18029,11 +18064,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -18072,11 +18107,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -18189,13 +18224,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -18238,11 +18273,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -18283,11 +18318,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -18328,11 +18363,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -18389,7 +18424,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -18451,11 +18486,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -18498,11 +18533,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -18543,11 +18578,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -18588,11 +18623,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -18649,7 +18684,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -18703,26 +18738,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -18745,27 +18784,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -18788,27 +18829,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -18831,12 +18874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -18854,13 +18897,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -18893,7 +18936,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -18947,11 +18990,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -18990,11 +19033,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -19033,11 +19076,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -19076,11 +19119,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -19138,24 +19181,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -19168,6 +19193,24 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19177,99 +19220,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C4095-B736-4F0D-A83E-FB76969E7CED}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -19328,13 +19371,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -19354,11 +19397,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -19376,11 +19419,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -19398,11 +19441,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -19453,7 +19496,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -19516,11 +19559,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -19540,11 +19583,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -19562,11 +19605,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -19584,11 +19627,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -19639,7 +19682,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -19693,11 +19736,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -19717,11 +19760,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -19739,11 +19782,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -19761,11 +19804,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -19816,7 +19859,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -19870,11 +19913,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -19913,11 +19956,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -19956,11 +19999,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -19999,11 +20042,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -20116,13 +20159,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -20165,11 +20208,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -20210,11 +20253,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -20255,11 +20298,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -20316,7 +20359,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -20379,11 +20422,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -20422,11 +20465,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -20465,11 +20508,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -20508,11 +20551,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -20569,7 +20612,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -20623,11 +20666,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -20666,11 +20709,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -20709,11 +20752,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -20752,11 +20795,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -20813,7 +20856,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -20867,11 +20910,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -20910,11 +20953,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -20953,11 +20996,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -20996,11 +21039,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -21113,13 +21156,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -21162,11 +21205,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -21207,11 +21250,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -21252,11 +21295,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -21313,7 +21356,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -21375,11 +21418,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -21422,11 +21465,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -21467,11 +21510,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -21512,11 +21555,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -21573,7 +21616,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -21627,26 +21670,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -21669,27 +21716,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -21712,27 +21761,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+    <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -21755,12 +21806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+    <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -21778,13 +21829,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -21817,7 +21868,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -21871,11 +21922,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -21914,11 +21965,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -21957,11 +22008,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -22000,11 +22051,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -22062,20 +22113,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -22092,6 +22129,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22101,99 +22152,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A183CAA-4958-4441-AB23-468713AB7CE4}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="86"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="92"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="96" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="71"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="72"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -22252,13 +22303,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="58"/>
@@ -22278,11 +22329,11 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="58"/>
       <c r="E7" s="49"/>
       <c r="F7" s="58"/>
@@ -22300,11 +22351,11 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="58"/>
       <c r="E8" s="64"/>
       <c r="F8" s="58"/>
@@ -22322,11 +22373,11 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="65">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -22377,7 +22428,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="str">
         <f t="shared" ref="B10:J10" si="0">B5</f>
         <v>Shift</v>
@@ -22440,11 +22491,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="58"/>
@@ -22464,11 +22515,11 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="58"/>
       <c r="E12" s="49"/>
       <c r="F12" s="58"/>
@@ -22486,11 +22537,11 @@
       <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="58"/>
       <c r="E13" s="64"/>
       <c r="F13" s="58"/>
@@ -22508,11 +22559,11 @@
       <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="65">
         <f>SUM(D11:D13)</f>
         <v>0</v>
@@ -22563,7 +22614,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -22617,11 +22668,11 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="58"/>
@@ -22641,11 +22692,11 @@
       <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
       <c r="F17" s="58"/>
@@ -22663,11 +22714,11 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="58"/>
       <c r="E18" s="64"/>
       <c r="F18" s="58"/>
@@ -22685,11 +22736,11 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="65">
         <f>SUM(D16:D18)</f>
         <v>0</v>
@@ -22740,7 +22791,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -22794,11 +22845,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="58">
@@ -22837,11 +22888,11 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
       <c r="F22" s="58">
@@ -22880,11 +22931,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="58"/>
       <c r="E23" s="64"/>
       <c r="F23" s="58">
@@ -22923,11 +22974,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="65">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -23040,13 +23091,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="58"/>
@@ -23089,11 +23140,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="103"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
       <c r="F27" s="58">
@@ -23134,11 +23185,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="100"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="58"/>
       <c r="E28" s="64"/>
       <c r="F28" s="58">
@@ -23179,11 +23230,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="100"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="65">
         <f>SUM(D26:D28)</f>
         <v>0</v>
@@ -23240,7 +23291,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="100"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="36" t="str">
         <f t="shared" ref="B30:J30" si="10">B25</f>
         <v>Shift</v>
@@ -23303,11 +23354,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="102"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58">
@@ -23346,11 +23397,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="103"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="58"/>
       <c r="E32" s="49"/>
       <c r="F32" s="58">
@@ -23389,11 +23440,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="58"/>
       <c r="E33" s="64"/>
       <c r="F33" s="58">
@@ -23432,11 +23483,11 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="65">
         <f>SUM(D31:D33)</f>
         <v>0</v>
@@ -23493,7 +23544,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -23547,11 +23598,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58">
@@ -23590,11 +23641,11 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="58"/>
       <c r="E37" s="49"/>
       <c r="F37" s="58">
@@ -23633,11 +23684,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="103"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="58"/>
       <c r="E38" s="64"/>
       <c r="F38" s="58">
@@ -23676,11 +23727,11 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="65">
         <f>SUM(D36:D38)</f>
         <v>0</v>
@@ -23737,7 +23788,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -23791,11 +23842,11 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -23834,11 +23885,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="58"/>
       <c r="E42" s="49"/>
       <c r="F42" s="58">
@@ -23877,11 +23928,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="58"/>
       <c r="E43" s="64"/>
       <c r="F43" s="58">
@@ -23920,11 +23971,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="65">
         <f>SUM(D41:D43)</f>
         <v>0</v>
@@ -24037,13 +24088,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="58"/>
@@ -24086,11 +24137,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="58"/>
       <c r="E47" s="49"/>
       <c r="F47" s="58">
@@ -24131,11 +24182,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="100"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="58"/>
       <c r="E48" s="64"/>
       <c r="F48" s="58">
@@ -24176,11 +24227,11 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="65">
         <f>SUM(D46:D48)</f>
         <v>0</v>
@@ -24237,7 +24288,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="100"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="str">
         <f t="shared" ref="B50:I50" si="28">B45</f>
         <v>Shift</v>
@@ -24299,11 +24350,11 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="100"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="58"/>
@@ -24346,11 +24397,11 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="100"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="58"/>
       <c r="E52" s="49"/>
       <c r="F52" s="58">
@@ -24391,11 +24442,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="100"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="103"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="58"/>
       <c r="E53" s="64"/>
       <c r="F53" s="58">
@@ -24436,11 +24487,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="65">
         <f>SUM(D51:D53)</f>
         <v>0</v>
@@ -24497,7 +24548,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="100"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -24551,26 +24602,30 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="74" t="s">
+        <v>32</v>
+      </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
         <f>D56-E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>48</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="16" t="e">
+      <c r="I56" s="16">
         <f>(D56*3600)/G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
         <f>I56-H56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K56" s="69" t="e">
         <f>(N56+Q56)/D56</f>
@@ -24594,26 +24649,28 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="58"/>
       <c r="E57" s="49"/>
       <c r="F57" s="58">
         <f t="shared" ref="F57:F58" si="34">D57-E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>48</v>
+      </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="16" t="e">
+      <c r="I57" s="16">
         <f>(D57*3600)/G57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
         <f>I57-H57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K57" s="69" t="e">
         <f t="shared" ref="K57:K58" si="35">(N57+Q57)/D57</f>
@@ -24637,26 +24694,28 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="103"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="58"/>
       <c r="E58" s="64"/>
       <c r="F58" s="58">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="26">
+        <v>48</v>
+      </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="16" t="e">
+      <c r="I58" s="16">
         <f>(D58*3600)/G58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>I58-H58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K58" s="69" t="e">
         <f t="shared" si="35"/>
@@ -24680,11 +24739,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="104"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="65">
         <f>SUM(D56:D58)</f>
         <v>0</v>
@@ -24702,13 +24761,13 @@
         <f>SUM(H56:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="32" t="e">
+      <c r="I59" s="32">
         <f>SUM(I56:I58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="J59" s="32">
         <f>SUM(J56:J58)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K59" s="33" t="e">
         <f>AVERAGE(K56:K58)</f>
@@ -24741,7 +24800,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
@@ -24795,11 +24854,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
       <c r="F61" s="58">
@@ -24838,11 +24897,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="58"/>
       <c r="E62" s="49"/>
       <c r="F62" s="58">
@@ -24881,11 +24940,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="100"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="103"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="58"/>
       <c r="E63" s="64"/>
       <c r="F63" s="58">
@@ -24924,11 +24983,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="65">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -24986,20 +25045,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A46:A64"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C61:C64"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
@@ -25016,6 +25061,20 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A46:A64"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
